--- a/data/raw/Aplication1_CrossSectionalData.xlsx
+++ b/data/raw/Aplication1_CrossSectionalData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FFADB4-D781-4813-AF41-539FDFB2A4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
   <si>
     <t>ALB</t>
   </si>
@@ -837,9 +836,6 @@
     <t>Zambia</t>
   </si>
   <si>
-    <t>Indicators</t>
-  </si>
-  <si>
     <t>iso_code</t>
   </si>
   <si>
@@ -850,9 +846,6 @@
   </si>
   <si>
     <t>regulation</t>
-  </si>
-  <si>
-    <t>freedom_trade_internationally</t>
   </si>
   <si>
     <t>gdp_pc_ppp</t>
@@ -873,7 +866,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -903,11 +896,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1187,3983 +1177,3965 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J137"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="D47" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="11.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>270</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1" t="s">
+        <v>274</v>
+      </c>
+      <c r="I1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F2" t="s">
-        <v>273</v>
-      </c>
-      <c r="G2" t="s">
-        <v>274</v>
-      </c>
-      <c r="H2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I2" t="s">
-        <v>276</v>
-      </c>
-      <c r="J2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="C2">
+        <v>64.543924759999996</v>
+      </c>
+      <c r="D2">
+        <v>37.185197940000002</v>
+      </c>
+      <c r="E2">
+        <v>17.440075289999999</v>
+      </c>
+      <c r="F2">
+        <v>5.58</v>
+      </c>
+      <c r="G2">
+        <v>6.9</v>
+      </c>
+      <c r="H2">
+        <v>17112.93794</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C3">
-        <v>64.543924759999996</v>
+        <v>43.076840519999998</v>
       </c>
       <c r="D3">
-        <v>37.185197940000002</v>
+        <v>11.57333072</v>
       </c>
       <c r="E3">
-        <v>17.440075289999999</v>
+        <v>4.9472809350000002</v>
       </c>
       <c r="F3">
-        <v>5.58</v>
+        <v>3.77</v>
       </c>
       <c r="G3">
-        <v>6.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H3">
-        <v>8.5299999999999994</v>
+        <v>14782.2003</v>
       </c>
       <c r="I3">
-        <v>17112.93794</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C4">
-        <v>43.076840519999998</v>
+        <v>20.499484429999999</v>
       </c>
       <c r="D4">
-        <v>11.57333072</v>
+        <v>16.225100770000001</v>
       </c>
       <c r="E4">
-        <v>4.9472809350000002</v>
+        <v>7.5385252170000001</v>
       </c>
       <c r="F4">
-        <v>3.77</v>
+        <v>3.53</v>
       </c>
       <c r="G4">
-        <v>4.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>3.14</v>
+        <v>7397.4864269999998</v>
       </c>
       <c r="I4">
-        <v>14782.2003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C5">
-        <v>20.499484429999999</v>
+        <v>23.290507949999999</v>
       </c>
       <c r="D5">
-        <v>16.225100770000001</v>
+        <v>75.316583949999995</v>
       </c>
       <c r="E5">
-        <v>7.5385252170000001</v>
+        <v>12.99702132</v>
       </c>
       <c r="F5">
-        <v>3.53</v>
+        <v>5.41</v>
       </c>
       <c r="G5">
         <v>5</v>
       </c>
       <c r="H5">
-        <v>2.97</v>
+        <v>27627.963479999999</v>
       </c>
       <c r="I5">
-        <v>7397.4864269999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C6">
-        <v>23.290507949999999</v>
+        <v>40.072624300000001</v>
       </c>
       <c r="D6">
-        <v>75.316583949999995</v>
+        <v>69.638204939999994</v>
       </c>
       <c r="E6">
-        <v>12.99702132</v>
+        <v>24.165339670000002</v>
       </c>
       <c r="F6">
-        <v>5.41</v>
+        <v>5.64</v>
       </c>
       <c r="G6">
+        <v>6.39</v>
+      </c>
+      <c r="H6">
+        <v>17886.178390000001</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="H6">
-        <v>4.2</v>
-      </c>
-      <c r="I6">
-        <v>27627.963479999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C7">
-        <v>40.072624300000001</v>
+        <v>84.349079560000007</v>
       </c>
       <c r="D7">
-        <v>69.638204939999994</v>
+        <v>19.317805499999999</v>
       </c>
       <c r="E7">
-        <v>24.165339670000002</v>
+        <v>117.6510301</v>
       </c>
       <c r="F7">
-        <v>5.64</v>
+        <v>8.69</v>
       </c>
       <c r="G7">
-        <v>6.39</v>
+        <v>8.24</v>
       </c>
       <c r="H7">
-        <v>8.08</v>
+        <v>59883.647040000003</v>
       </c>
       <c r="I7">
-        <v>17886.178390000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C8">
-        <v>84.349079560000007</v>
+        <v>28.233323800000001</v>
       </c>
       <c r="D8">
-        <v>19.317805499999999</v>
+        <v>176.32719589999999</v>
       </c>
       <c r="E8">
-        <v>117.6510301</v>
+        <v>11.453004010000001</v>
       </c>
       <c r="F8">
-        <v>8.69</v>
+        <v>8.49</v>
       </c>
       <c r="G8">
-        <v>8.24</v>
+        <v>6.81</v>
       </c>
       <c r="H8">
-        <v>8.1300000000000008</v>
+        <v>65661.452189999996</v>
       </c>
       <c r="I8">
-        <v>59883.647040000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C9">
-        <v>28.233323800000001</v>
+        <v>25.205134000000001</v>
       </c>
       <c r="D9">
-        <v>176.32719589999999</v>
+        <v>6.5392208289999996</v>
       </c>
       <c r="E9">
-        <v>11.453004010000001</v>
+        <v>39.18423731</v>
       </c>
       <c r="F9">
-        <v>8.49</v>
+        <v>4.41</v>
       </c>
       <c r="G9">
-        <v>6.81</v>
+        <v>5.51</v>
       </c>
       <c r="H9">
-        <v>8.67</v>
+        <v>21051.24424</v>
       </c>
       <c r="I9">
-        <v>65661.452189999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C10">
-        <v>25.205134000000001</v>
+        <v>62.187677870000002</v>
       </c>
       <c r="D10">
-        <v>6.5392208289999996</v>
+        <v>119.1968916</v>
       </c>
       <c r="E10">
-        <v>39.18423731</v>
+        <v>24.148980630000001</v>
       </c>
       <c r="F10">
-        <v>4.41</v>
+        <v>6.19</v>
       </c>
       <c r="G10">
-        <v>5.51</v>
+        <v>7.35</v>
       </c>
       <c r="H10">
-        <v>7.19</v>
+        <v>34342.790410000001</v>
       </c>
       <c r="I10">
-        <v>21051.24424</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C11">
-        <v>62.187677870000002</v>
+        <v>86.576262740000004</v>
       </c>
       <c r="D11">
-        <v>119.1968916</v>
+        <v>38.580090570000003</v>
       </c>
       <c r="E11">
-        <v>24.148980630000001</v>
+        <v>14.42700866</v>
       </c>
       <c r="F11">
-        <v>6.19</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="G11">
-        <v>7.35</v>
+        <v>7.63</v>
       </c>
       <c r="H11">
-        <v>5.69</v>
+        <v>57572.99798</v>
       </c>
       <c r="I11">
-        <v>34342.790410000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C12">
-        <v>86.576262740000004</v>
+        <v>39.523059670000002</v>
       </c>
       <c r="D12">
-        <v>38.580090570000003</v>
+        <v>9.2828414830000003</v>
       </c>
       <c r="E12">
-        <v>14.42700866</v>
+        <v>13.197382579999999</v>
       </c>
       <c r="F12">
-        <v>4.6399999999999997</v>
+        <v>3.44</v>
       </c>
       <c r="G12">
-        <v>7.63</v>
+        <v>5.43</v>
       </c>
       <c r="H12">
-        <v>8.35</v>
+        <v>7888.1638910000001</v>
       </c>
       <c r="I12">
-        <v>57572.99798</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C13">
-        <v>39.523059670000002</v>
+        <v>12.91566929</v>
       </c>
       <c r="D13">
-        <v>9.2828414830000003</v>
+        <v>30.13656168</v>
       </c>
       <c r="E13">
-        <v>13.197382579999999</v>
+        <v>93.664253439999996</v>
       </c>
       <c r="F13">
-        <v>3.44</v>
+        <v>6.12</v>
       </c>
       <c r="G13">
-        <v>5.43</v>
+        <v>6.2</v>
       </c>
       <c r="H13">
-        <v>5.94</v>
+        <v>18469.576590000001</v>
       </c>
       <c r="I13">
-        <v>7888.1638910000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C14">
-        <v>12.91566929</v>
+        <v>102.13576930000001</v>
       </c>
       <c r="D14">
-        <v>30.13656168</v>
+        <v>21.149783029999998</v>
       </c>
       <c r="E14">
-        <v>93.664253439999996</v>
+        <v>60.464583400000002</v>
       </c>
       <c r="F14">
-        <v>6.12</v>
+        <v>7.98</v>
       </c>
       <c r="G14">
-        <v>6.2</v>
+        <v>7.18</v>
       </c>
       <c r="H14">
-        <v>6.74</v>
+        <v>62744.203000000001</v>
       </c>
       <c r="I14">
-        <v>18469.576590000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C15">
-        <v>102.13576930000001</v>
+        <v>44.468486740000003</v>
       </c>
       <c r="D15">
-        <v>21.149783029999998</v>
+        <v>14.749515499999999</v>
       </c>
       <c r="E15">
-        <v>60.464583400000002</v>
+        <v>45.277582449999997</v>
       </c>
       <c r="F15">
-        <v>7.98</v>
+        <v>3.85</v>
       </c>
       <c r="G15">
-        <v>7.18</v>
+        <v>6.98</v>
       </c>
       <c r="H15">
-        <v>8.84</v>
+        <v>12569.817940000001</v>
       </c>
       <c r="I15">
-        <v>62744.203000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C16">
-        <v>44.468486740000003</v>
+        <v>35.559538709999998</v>
       </c>
       <c r="D16">
-        <v>14.749515499999999</v>
+        <v>2.800131393</v>
       </c>
       <c r="E16">
-        <v>45.277582449999997</v>
+        <v>3.82977612</v>
       </c>
       <c r="F16">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="G16">
-        <v>6.98</v>
+        <v>6.45</v>
       </c>
       <c r="H16">
-        <v>6.57</v>
+        <v>3588.3251989999999</v>
       </c>
       <c r="I16">
-        <v>12569.817940000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C17">
-        <v>35.559538709999998</v>
+        <v>41.841893200000001</v>
       </c>
       <c r="D17">
-        <v>2.800131393</v>
+        <v>12.97615508</v>
       </c>
       <c r="E17">
-        <v>3.82977612</v>
+        <v>44.18462933</v>
       </c>
       <c r="F17">
-        <v>4.3</v>
+        <v>6.83</v>
       </c>
       <c r="G17">
-        <v>6.45</v>
+        <v>7.07</v>
       </c>
       <c r="H17">
-        <v>6.07</v>
+        <v>14061.312029999999</v>
       </c>
       <c r="I17">
-        <v>3588.3251989999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C18">
-        <v>41.841893200000001</v>
+        <v>56.579582719999998</v>
       </c>
       <c r="D18">
-        <v>12.97615508</v>
+        <v>74.650337149999999</v>
       </c>
       <c r="E18">
-        <v>44.18462933</v>
+        <v>44.94984393</v>
       </c>
       <c r="F18">
-        <v>6.83</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="G18">
-        <v>7.07</v>
+        <v>4.68</v>
       </c>
       <c r="H18">
-        <v>6.84</v>
+        <v>9681.7074300000004</v>
       </c>
       <c r="I18">
-        <v>14061.312029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C19">
-        <v>56.579582719999998</v>
+        <v>49.836191650000004</v>
       </c>
       <c r="D19">
-        <v>74.650337149999999</v>
+        <v>29.213518759999999</v>
       </c>
       <c r="E19">
-        <v>44.94984393</v>
+        <v>59.543707169999998</v>
       </c>
       <c r="F19">
-        <v>4.1399999999999997</v>
+        <v>4.58</v>
       </c>
       <c r="G19">
-        <v>4.68</v>
+        <v>6.62</v>
       </c>
       <c r="H19">
-        <v>6.45</v>
+        <v>19298.18116</v>
       </c>
       <c r="I19">
-        <v>9681.7074300000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C20">
-        <v>49.836191650000004</v>
+        <v>23.71628608</v>
       </c>
       <c r="D20">
-        <v>29.213518759999999</v>
+        <v>8.3090732650000003</v>
       </c>
       <c r="E20">
-        <v>59.543707169999998</v>
+        <v>38.148956820000002</v>
       </c>
       <c r="F20">
-        <v>4.58</v>
+        <v>6.08</v>
       </c>
       <c r="G20">
-        <v>6.62</v>
+        <v>5.83</v>
       </c>
       <c r="H20">
-        <v>7.68</v>
+        <v>18647.373459999999</v>
       </c>
       <c r="I20">
-        <v>19298.18116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C21">
-        <v>23.71628608</v>
+        <v>39.209854300000003</v>
       </c>
       <c r="D21">
-        <v>8.3090732650000003</v>
+        <v>113.4541655</v>
       </c>
       <c r="E21">
-        <v>38.148956820000002</v>
+        <v>16.91283301</v>
       </c>
       <c r="F21">
-        <v>6.08</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="G21">
-        <v>5.83</v>
+        <v>5.36</v>
       </c>
       <c r="H21">
-        <v>7.24</v>
+        <v>18554.046180000001</v>
       </c>
       <c r="I21">
-        <v>18647.373459999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C22">
-        <v>39.209854300000003</v>
+        <v>120.73152090000001</v>
       </c>
       <c r="D22">
-        <v>113.4541655</v>
+        <v>66.645270850000003</v>
       </c>
       <c r="E22">
-        <v>16.91283301</v>
+        <v>106.6134287</v>
       </c>
       <c r="F22">
-        <v>4.9800000000000004</v>
+        <v>5.59</v>
       </c>
       <c r="G22">
-        <v>5.36</v>
+        <v>6.35</v>
       </c>
       <c r="H22">
-        <v>7.38</v>
+        <v>32435.014599999999</v>
       </c>
       <c r="I22">
-        <v>18554.046180000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C23">
-        <v>120.73152090000001</v>
+        <v>44.281673310000002</v>
       </c>
       <c r="D23">
-        <v>66.645270850000003</v>
+        <v>4.3934530379999996</v>
       </c>
       <c r="E23">
-        <v>106.6134287</v>
+        <v>2.9133890720000002</v>
       </c>
       <c r="F23">
-        <v>5.59</v>
+        <v>4.34</v>
       </c>
       <c r="G23">
-        <v>6.35</v>
+        <v>6.54</v>
       </c>
       <c r="H23">
-        <v>8.39</v>
+        <v>2466.0533139999998</v>
       </c>
       <c r="I23">
-        <v>32435.014599999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C24">
-        <v>44.281673310000002</v>
+        <v>84.821219940000006</v>
       </c>
       <c r="D24">
-        <v>4.3934530379999996</v>
+        <v>35.138334069999999</v>
       </c>
       <c r="E24">
-        <v>2.9133890720000002</v>
+        <v>56.009976119999997</v>
       </c>
       <c r="F24">
-        <v>4.34</v>
+        <v>6.21</v>
       </c>
       <c r="G24">
-        <v>6.54</v>
+        <v>6.51</v>
       </c>
       <c r="H24">
-        <v>6.65</v>
+        <v>8850.1066919999994</v>
       </c>
       <c r="I24">
-        <v>2466.0533139999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C25">
-        <v>84.821219940000006</v>
+        <v>94.495518860000004</v>
       </c>
       <c r="D25">
-        <v>35.138334069999999</v>
+        <v>12.505183669999999</v>
       </c>
       <c r="E25">
-        <v>56.009976119999997</v>
+        <v>37.816477900000002</v>
       </c>
       <c r="F25">
-        <v>6.21</v>
+        <v>3.27</v>
       </c>
       <c r="G25">
-        <v>6.51</v>
+        <v>5.28</v>
       </c>
       <c r="H25">
-        <v>7.61</v>
+        <v>6458.3681489999999</v>
       </c>
       <c r="I25">
-        <v>8850.1066919999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C26">
-        <v>94.495518860000004</v>
+        <v>95.842388830000004</v>
       </c>
       <c r="D26">
-        <v>12.505183669999999</v>
+        <v>205.96850359999999</v>
       </c>
       <c r="E26">
-        <v>37.816477900000002</v>
+        <v>19.761444269999998</v>
       </c>
       <c r="F26">
-        <v>3.27</v>
+        <v>7.91</v>
       </c>
       <c r="G26">
-        <v>5.28</v>
+        <v>7.93</v>
       </c>
       <c r="H26">
-        <v>7.36</v>
+        <v>58321.061179999997</v>
       </c>
       <c r="I26">
-        <v>6458.3681489999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C27">
-        <v>95.842388830000004</v>
+        <v>59.247383769999999</v>
       </c>
       <c r="D27">
-        <v>205.96850359999999</v>
+        <v>46.8755004</v>
       </c>
       <c r="E27">
-        <v>19.761444269999998</v>
+        <v>9.9683506420000008</v>
       </c>
       <c r="F27">
-        <v>7.91</v>
+        <v>6.82</v>
       </c>
       <c r="G27">
-        <v>7.93</v>
+        <v>6.76</v>
       </c>
       <c r="H27">
-        <v>8.5299999999999994</v>
+        <v>29569.47755</v>
       </c>
       <c r="I27">
-        <v>58321.061179999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C28">
-        <v>59.247383769999999</v>
+        <v>157.66909150000001</v>
       </c>
       <c r="D28">
-        <v>46.8755004</v>
+        <v>8.7847140390000007</v>
       </c>
       <c r="E28">
-        <v>9.9683506420000008</v>
+        <v>76.555986759999996</v>
       </c>
       <c r="F28">
-        <v>6.82</v>
+        <v>4.91</v>
       </c>
       <c r="G28">
-        <v>6.76</v>
+        <v>5.56</v>
       </c>
       <c r="H28">
-        <v>8.56</v>
+        <v>21499.382280000002</v>
       </c>
       <c r="I28">
-        <v>29569.47755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C29">
-        <v>157.66909150000001</v>
+        <v>40.749081019999998</v>
       </c>
       <c r="D29">
-        <v>8.7847140390000007</v>
+        <v>12.775952009999999</v>
       </c>
       <c r="E29">
-        <v>76.555986759999996</v>
+        <v>39.168990460000003</v>
       </c>
       <c r="F29">
-        <v>4.91</v>
+        <v>4.83</v>
       </c>
       <c r="G29">
-        <v>5.56</v>
+        <v>6.5</v>
       </c>
       <c r="H29">
-        <v>7.08</v>
+        <v>18458.720949999999</v>
       </c>
       <c r="I29">
-        <v>21499.382280000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C30">
-        <v>40.749081019999998</v>
+        <v>11.806746309999999</v>
       </c>
       <c r="D30">
-        <v>12.775952009999999</v>
+        <v>6.5442002989999999</v>
       </c>
       <c r="E30">
-        <v>39.168990460000003</v>
+        <v>5.0043884639999998</v>
       </c>
       <c r="F30">
-        <v>4.83</v>
+        <v>2.99</v>
       </c>
       <c r="G30">
-        <v>6.5</v>
+        <v>5.91</v>
       </c>
       <c r="H30">
-        <v>7.12</v>
+        <v>3478.173468</v>
       </c>
       <c r="I30">
-        <v>18458.720949999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C31">
-        <v>11.806746309999999</v>
+        <v>25.49071927</v>
       </c>
       <c r="D31">
-        <v>6.5442002989999999</v>
+        <v>3.9207545000000001</v>
       </c>
       <c r="E31">
-        <v>5.0043884639999998</v>
+        <v>13.48288238</v>
       </c>
       <c r="F31">
-        <v>2.99</v>
+        <v>3.36</v>
       </c>
       <c r="G31">
-        <v>5.91</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="H31">
-        <v>6.47</v>
+        <v>6205.1050409999998</v>
       </c>
       <c r="I31">
-        <v>3478.173468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C32">
-        <v>25.49071927</v>
+        <v>50.39988323</v>
       </c>
       <c r="D32">
-        <v>3.9207545000000001</v>
+        <v>64.538127700000004</v>
       </c>
       <c r="E32">
-        <v>13.48288238</v>
+        <v>16.079297700000001</v>
       </c>
       <c r="F32">
-        <v>3.36</v>
+        <v>6.58</v>
       </c>
       <c r="G32">
-        <v>4.4400000000000004</v>
+        <v>7.01</v>
       </c>
       <c r="H32">
-        <v>5.77</v>
+        <v>24831.719349999999</v>
       </c>
       <c r="I32">
-        <v>6205.1050409999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C33">
-        <v>50.39988323</v>
+        <v>77.176714290000007</v>
       </c>
       <c r="D33">
-        <v>64.538127700000004</v>
+        <v>26.299470769999999</v>
       </c>
       <c r="E33">
-        <v>16.079297700000001</v>
+        <v>126.6248397</v>
       </c>
       <c r="F33">
-        <v>6.58</v>
+        <v>6.21</v>
       </c>
       <c r="G33">
-        <v>7.01</v>
+        <v>6.04</v>
       </c>
       <c r="H33">
-        <v>8.25</v>
+        <v>39864.081680000003</v>
       </c>
       <c r="I33">
-        <v>24831.719349999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C34">
-        <v>77.176714290000007</v>
+        <v>126.465189</v>
       </c>
       <c r="D34">
-        <v>26.299470769999999</v>
+        <v>20.574143849999999</v>
       </c>
       <c r="E34">
-        <v>126.6248397</v>
+        <v>30.503404570000001</v>
       </c>
       <c r="F34">
-        <v>6.21</v>
+        <v>6.99</v>
       </c>
       <c r="G34">
-        <v>6.04</v>
+        <v>6.83</v>
       </c>
       <c r="H34">
-        <v>8.4499999999999993</v>
+        <v>51591.414060000003</v>
       </c>
       <c r="I34">
-        <v>39864.081680000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C35">
-        <v>126.465189</v>
+        <v>21.930788379999999</v>
       </c>
       <c r="D35">
-        <v>20.574143849999999</v>
+        <v>76.691391769999996</v>
       </c>
       <c r="E35">
-        <v>30.503404570000001</v>
+        <v>68.523187370000002</v>
       </c>
       <c r="F35">
+        <v>7.67</v>
+      </c>
+      <c r="G35">
         <v>6.99</v>
       </c>
-      <c r="G35">
-        <v>6.83</v>
-      </c>
       <c r="H35">
-        <v>8.9</v>
+        <v>48390.661679999997</v>
       </c>
       <c r="I35">
-        <v>51591.414060000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C36">
-        <v>21.930788379999999</v>
+        <v>56.804280439999999</v>
       </c>
       <c r="D36">
-        <v>76.691391769999996</v>
+        <v>39.121065270000003</v>
       </c>
       <c r="E36">
-        <v>68.523187370000002</v>
+        <v>17.53285494</v>
       </c>
       <c r="F36">
-        <v>7.67</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="G36">
-        <v>6.99</v>
+        <v>7.32</v>
       </c>
       <c r="H36">
-        <v>8.85</v>
+        <v>70233.640230000005</v>
       </c>
       <c r="I36">
-        <v>48390.661679999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C37">
-        <v>56.804280439999999</v>
+        <v>68.659492450000002</v>
       </c>
       <c r="D37">
-        <v>39.121065270000003</v>
+        <v>9.1742888669999996</v>
       </c>
       <c r="E37">
-        <v>17.53285494</v>
+        <v>15.20669798</v>
       </c>
       <c r="F37">
-        <v>8.8800000000000008</v>
+        <v>3.7</v>
       </c>
       <c r="G37">
-        <v>7.32</v>
+        <v>6.66</v>
       </c>
       <c r="H37">
-        <v>8.93</v>
+        <v>6180.6799860000001</v>
       </c>
       <c r="I37">
-        <v>70233.640230000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C38">
-        <v>68.659492450000002</v>
+        <v>30.607733369999998</v>
       </c>
       <c r="D38">
-        <v>9.1742888669999996</v>
+        <v>10.84766226</v>
       </c>
       <c r="E38">
-        <v>15.20669798</v>
+        <v>38.535494659999998</v>
       </c>
       <c r="F38">
-        <v>3.7</v>
+        <v>5.42</v>
       </c>
       <c r="G38">
-        <v>6.66</v>
+        <v>6.28</v>
       </c>
       <c r="H38">
-        <v>5.76</v>
+        <v>22986.95808</v>
       </c>
       <c r="I38">
-        <v>6180.6799860000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C39">
-        <v>30.607733369999998</v>
+        <v>37.46220624</v>
       </c>
       <c r="D39">
-        <v>10.84766226</v>
+        <v>8.9937954110000007</v>
       </c>
       <c r="E39">
-        <v>38.535494659999998</v>
+        <v>50.753930889999999</v>
       </c>
       <c r="F39">
-        <v>5.42</v>
+        <v>4.62</v>
       </c>
       <c r="G39">
-        <v>6.28</v>
+        <v>6.36</v>
       </c>
       <c r="H39">
-        <v>8.14</v>
+        <v>14186.638849999999</v>
       </c>
       <c r="I39">
-        <v>22986.95808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C40">
-        <v>37.46220624</v>
+        <v>6.6496654460000002</v>
       </c>
       <c r="D40">
-        <v>8.9937954110000007</v>
+        <v>31.310563139999999</v>
       </c>
       <c r="E40">
-        <v>50.753930889999999</v>
+        <v>109.1834712</v>
       </c>
       <c r="F40">
-        <v>4.62</v>
+        <v>3.48</v>
       </c>
       <c r="G40">
-        <v>6.36</v>
+        <v>4.57</v>
       </c>
       <c r="H40">
-        <v>6.8</v>
+        <v>16360.39078</v>
       </c>
       <c r="I40">
-        <v>14186.638849999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C41">
-        <v>6.6496654460000002</v>
+        <v>50.459743209999999</v>
       </c>
       <c r="D41">
-        <v>31.310563139999999</v>
+        <v>9.2047798069999995</v>
       </c>
       <c r="E41">
-        <v>109.1834712</v>
+        <v>38.381791149999998</v>
       </c>
       <c r="F41">
-        <v>3.48</v>
+        <v>4.21</v>
       </c>
       <c r="G41">
-        <v>4.57</v>
+        <v>6.25</v>
       </c>
       <c r="H41">
-        <v>6.12</v>
+        <v>11085.61781</v>
       </c>
       <c r="I41">
-        <v>16360.39078</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C42">
-        <v>50.459743209999999</v>
+        <v>58.620577490000002</v>
       </c>
       <c r="D42">
-        <v>9.2047798069999995</v>
+        <v>6.8148769649999998</v>
       </c>
       <c r="E42">
-        <v>38.381791149999998</v>
+        <v>59.209775190000002</v>
       </c>
       <c r="F42">
-        <v>4.21</v>
+        <v>7.74</v>
       </c>
       <c r="G42">
-        <v>6.25</v>
+        <v>7.54</v>
       </c>
       <c r="H42">
-        <v>7.98</v>
+        <v>43690.414230000002</v>
       </c>
       <c r="I42">
-        <v>11085.61781</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C43">
-        <v>58.620577490000002</v>
+        <v>28.195585749999999</v>
       </c>
       <c r="D43">
-        <v>6.8148769649999998</v>
+        <v>9.1296962910000001</v>
       </c>
       <c r="E43">
-        <v>59.209775190000002</v>
+        <v>11.87045704</v>
       </c>
       <c r="F43">
-        <v>7.74</v>
+        <v>4.49</v>
       </c>
       <c r="G43">
-        <v>7.54</v>
+        <v>5.71</v>
       </c>
       <c r="H43">
-        <v>8.9499999999999993</v>
+        <v>2655.5927670000001</v>
       </c>
       <c r="I43">
-        <v>43690.414230000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C44">
-        <v>28.195585749999999</v>
+        <v>70.391560420000005</v>
       </c>
       <c r="D44">
-        <v>9.1296962910000001</v>
+        <v>10.22985583</v>
       </c>
       <c r="E44">
-        <v>11.87045704</v>
+        <v>48.742254269999997</v>
       </c>
       <c r="F44">
-        <v>4.49</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="G44">
-        <v>5.71</v>
+        <v>6.9</v>
       </c>
       <c r="H44">
-        <v>4.25</v>
+        <v>12762.34664</v>
       </c>
       <c r="I44">
-        <v>2655.5927670000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C45">
-        <v>70.391560420000005</v>
+        <v>35.163265619999997</v>
       </c>
       <c r="D45">
-        <v>10.22985583</v>
+        <v>5.9655053669999996</v>
       </c>
       <c r="E45">
-        <v>48.742254269999997</v>
+        <v>36.005327770000001</v>
       </c>
       <c r="F45">
-        <v>4.5599999999999996</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="G45">
-        <v>6.9</v>
+        <v>7.69</v>
       </c>
       <c r="H45">
-        <v>6.18</v>
+        <v>57068.305650000002</v>
       </c>
       <c r="I45">
-        <v>12762.34664</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C46">
-        <v>35.163265619999997</v>
+        <v>47.211890029999999</v>
       </c>
       <c r="D46">
-        <v>5.9655053669999996</v>
+        <v>84.288693730000006</v>
       </c>
       <c r="E46">
-        <v>36.005327770000001</v>
+        <v>32.038557470000001</v>
       </c>
       <c r="F46">
-        <v>8.8699999999999992</v>
+        <v>7.33</v>
       </c>
       <c r="G46">
-        <v>7.69</v>
+        <v>6.95</v>
       </c>
       <c r="H46">
-        <v>8.67</v>
+        <v>53691.617489999997</v>
       </c>
       <c r="I46">
-        <v>57068.305650000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C47">
-        <v>47.211890029999999</v>
+        <v>44.61604509</v>
       </c>
       <c r="D47">
-        <v>84.288693730000006</v>
+        <v>5.8039952120000002</v>
       </c>
       <c r="E47">
-        <v>32.038557470000001</v>
+        <v>8.5125263110000002</v>
       </c>
       <c r="F47">
-        <v>7.33</v>
+        <v>5.36</v>
       </c>
       <c r="G47">
-        <v>6.95</v>
+        <v>6.74</v>
       </c>
       <c r="H47">
-        <v>8.94</v>
+        <v>2863.1804990000001</v>
       </c>
       <c r="I47">
-        <v>53691.617489999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C48">
-        <v>44.61604509</v>
+        <v>38.356384830000003</v>
       </c>
       <c r="D48">
-        <v>5.8039952120000002</v>
+        <v>99.194819719999998</v>
       </c>
       <c r="E48">
-        <v>8.5125263110000002</v>
+        <v>31.310287689999999</v>
       </c>
       <c r="F48">
-        <v>5.36</v>
+        <v>5.82</v>
       </c>
       <c r="G48">
-        <v>6.74</v>
+        <v>7.6</v>
       </c>
       <c r="H48">
-        <v>7.28</v>
+        <v>20966.528040000001</v>
       </c>
       <c r="I48">
-        <v>2863.1804990000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C49">
-        <v>38.356384830000003</v>
+        <v>31.14015453</v>
       </c>
       <c r="D49">
-        <v>99.194819719999998</v>
+        <v>7.0224983879999998</v>
       </c>
       <c r="E49">
-        <v>31.310287689999999</v>
+        <v>72.986297890000003</v>
       </c>
       <c r="F49">
-        <v>5.82</v>
+        <v>8.23</v>
       </c>
       <c r="G49">
-        <v>7.6</v>
+        <v>7.36</v>
       </c>
       <c r="H49">
-        <v>8.8000000000000007</v>
+        <v>62931.968410000001</v>
       </c>
       <c r="I49">
-        <v>20966.528040000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C50">
-        <v>31.14015453</v>
+        <v>11.35983293</v>
       </c>
       <c r="D50">
-        <v>7.0224983879999998</v>
+        <v>25.70465767</v>
       </c>
       <c r="E50">
-        <v>72.986297890000003</v>
+        <v>6.1079243549999997</v>
       </c>
       <c r="F50">
-        <v>8.23</v>
+        <v>5.27</v>
       </c>
       <c r="G50">
-        <v>7.36</v>
+        <v>6.41</v>
       </c>
       <c r="H50">
-        <v>8.7200000000000006</v>
+        <v>6728.4541399999998</v>
       </c>
       <c r="I50">
-        <v>62931.968410000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C51">
-        <v>11.35983293</v>
+        <v>89.978788499999993</v>
       </c>
       <c r="D51">
-        <v>25.70465767</v>
+        <v>16.33754866</v>
       </c>
       <c r="E51">
-        <v>6.1079243549999997</v>
+        <v>66.473470610000007</v>
       </c>
       <c r="F51">
-        <v>5.27</v>
+        <v>6.45</v>
       </c>
       <c r="G51">
-        <v>6.41</v>
+        <v>6.67</v>
       </c>
       <c r="H51">
-        <v>6.66</v>
+        <v>35906.61277</v>
       </c>
       <c r="I51">
-        <v>6728.4541399999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C52">
-        <v>89.978788499999993</v>
+        <v>45.100919410000003</v>
       </c>
       <c r="D52">
-        <v>16.33754866</v>
+        <v>22.75770983</v>
       </c>
       <c r="E52">
-        <v>66.473470610000007</v>
+        <v>35.664570509999997</v>
       </c>
       <c r="F52">
-        <v>6.45</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="G52">
-        <v>6.67</v>
+        <v>7.06</v>
       </c>
       <c r="H52">
-        <v>8.49</v>
+        <v>12147.9306</v>
       </c>
       <c r="I52">
-        <v>35906.61277</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C53">
-        <v>45.100919410000003</v>
+        <v>23.14316758</v>
       </c>
       <c r="D53">
-        <v>22.75770983</v>
+        <v>2.703211488</v>
       </c>
       <c r="E53">
-        <v>35.664570509999997</v>
+        <v>2.654504975</v>
       </c>
       <c r="F53">
-        <v>4.5599999999999996</v>
+        <v>3.42</v>
       </c>
       <c r="G53">
-        <v>7.06</v>
+        <v>5.63</v>
       </c>
       <c r="H53">
-        <v>8.3699999999999992</v>
+        <v>3792.0106879999998</v>
       </c>
       <c r="I53">
-        <v>12147.9306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C54">
-        <v>23.14316758</v>
+        <v>24.220703990000001</v>
       </c>
       <c r="D54">
-        <v>2.703211488</v>
+        <v>7.4042916529999996</v>
       </c>
       <c r="E54">
-        <v>2.654504975</v>
+        <v>3.308300526</v>
       </c>
       <c r="F54">
-        <v>3.42</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="G54">
-        <v>5.63</v>
+        <v>4.88</v>
       </c>
       <c r="H54">
-        <v>5.93</v>
+        <v>2564.4240719999998</v>
       </c>
       <c r="I54">
-        <v>3792.0106879999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C55">
-        <v>24.220703990000001</v>
+        <v>21.20503197</v>
       </c>
       <c r="D55">
-        <v>7.4042916529999996</v>
+        <v>7.9303371599999997</v>
       </c>
       <c r="E55">
-        <v>3.308300526</v>
+        <v>17.68437222</v>
       </c>
       <c r="F55">
-        <v>2.5299999999999998</v>
+        <v>4.34</v>
       </c>
       <c r="G55">
-        <v>4.88</v>
+        <v>6.48</v>
       </c>
       <c r="H55">
-        <v>6.32</v>
+        <v>37068.199379999998</v>
       </c>
       <c r="I55">
-        <v>2564.4240719999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C56">
-        <v>21.20503197</v>
+        <v>68.931928589999998</v>
       </c>
       <c r="D56">
-        <v>7.9303371599999997</v>
+        <v>15.53002225</v>
       </c>
       <c r="E56">
-        <v>17.68437222</v>
+        <v>25.433022980000001</v>
       </c>
       <c r="F56">
-        <v>4.34</v>
+        <v>4.09</v>
       </c>
       <c r="G56">
-        <v>6.48</v>
+        <v>6.49</v>
       </c>
       <c r="H56">
-        <v>6.38</v>
+        <v>6352.5871020000004</v>
       </c>
       <c r="I56">
-        <v>37068.199379999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C57">
-        <v>68.931928589999998</v>
+        <v>548.76167009999995</v>
       </c>
       <c r="D57">
-        <v>15.53002225</v>
+        <v>48.895608639999999</v>
       </c>
       <c r="E57">
-        <v>25.433022980000001</v>
+        <v>18.748409939999998</v>
       </c>
       <c r="F57">
-        <v>4.09</v>
+        <v>7.6</v>
       </c>
       <c r="G57">
-        <v>6.49</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="H57">
-        <v>7.06</v>
+        <v>64036.667170000001</v>
       </c>
       <c r="I57">
-        <v>6352.5871020000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C58">
-        <v>548.76167009999995</v>
+        <v>42.508777479999999</v>
       </c>
       <c r="D58">
-        <v>48.895608639999999</v>
+        <v>17.520605289999999</v>
       </c>
       <c r="E58">
-        <v>18.748409939999998</v>
+        <v>57.72783579</v>
       </c>
       <c r="F58">
-        <v>7.6</v>
+        <v>6.67</v>
       </c>
       <c r="G58">
-        <v>8.5299999999999994</v>
+        <v>6.54</v>
       </c>
       <c r="H58">
-        <v>9.66</v>
+        <v>40656.968679999998</v>
       </c>
       <c r="I58">
-        <v>64036.667170000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C59">
-        <v>42.508777479999999</v>
+        <v>52.172359710000002</v>
       </c>
       <c r="D59">
-        <v>17.520605289999999</v>
+        <v>25.33699811</v>
       </c>
       <c r="E59">
-        <v>57.72783579</v>
+        <v>68.313678449999998</v>
       </c>
       <c r="F59">
-        <v>6.67</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="G59">
-        <v>6.54</v>
+        <v>6.85</v>
       </c>
       <c r="H59">
-        <v>8.6999999999999993</v>
+        <v>65475.411289999996</v>
       </c>
       <c r="I59">
-        <v>40656.968679999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C60">
-        <v>52.172359710000002</v>
+        <v>64.236086639999996</v>
       </c>
       <c r="D60">
-        <v>25.33699811</v>
+        <v>24.561639419999999</v>
       </c>
       <c r="E60">
-        <v>68.313678449999998</v>
+        <v>14.26709129</v>
       </c>
       <c r="F60">
-        <v>8.5399999999999991</v>
+        <v>5.44</v>
       </c>
       <c r="G60">
-        <v>6.85</v>
+        <v>5.96</v>
       </c>
       <c r="H60">
-        <v>8.43</v>
+        <v>8594.3919050000004</v>
       </c>
       <c r="I60">
-        <v>65475.411289999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C61">
-        <v>64.236086639999996</v>
+        <v>41.624456189999997</v>
       </c>
       <c r="D61">
-        <v>24.561639419999999</v>
+        <v>12.23034966</v>
       </c>
       <c r="E61">
-        <v>14.26709129</v>
+        <v>47.31503438</v>
       </c>
       <c r="F61">
-        <v>5.44</v>
+        <v>4.71</v>
       </c>
       <c r="G61">
-        <v>5.96</v>
+        <v>5.59</v>
       </c>
       <c r="H61">
-        <v>6.18</v>
+        <v>13334.26539</v>
       </c>
       <c r="I61">
-        <v>8594.3919050000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C62">
-        <v>41.624456189999997</v>
+        <v>34.566853180000003</v>
       </c>
       <c r="D62">
-        <v>12.23034966</v>
+        <v>3.439283128</v>
       </c>
       <c r="E62">
-        <v>47.31503438</v>
+        <v>8.0819517909999998</v>
       </c>
       <c r="F62">
-        <v>4.71</v>
+        <v>2.52</v>
       </c>
       <c r="G62">
-        <v>5.59</v>
+        <v>5.8</v>
       </c>
       <c r="H62">
-        <v>7.03</v>
+        <v>13433.397720000001</v>
       </c>
       <c r="I62">
-        <v>13334.26539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C63">
-        <v>34.566853180000003</v>
+        <v>40.621496690000001</v>
       </c>
       <c r="D63">
-        <v>3.439283128</v>
+        <v>33.201242880000002</v>
       </c>
       <c r="E63">
-        <v>8.0819517909999998</v>
+        <v>13.14712057</v>
       </c>
       <c r="F63">
-        <v>2.52</v>
+        <v>7.91</v>
       </c>
       <c r="G63">
-        <v>5.8</v>
+        <v>8.07</v>
       </c>
       <c r="H63">
-        <v>7.13</v>
+        <v>124489.37850000001</v>
       </c>
       <c r="I63">
-        <v>13433.397720000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C64">
-        <v>40.621496690000001</v>
+        <v>110.8686067</v>
       </c>
       <c r="D64">
-        <v>33.201242880000002</v>
+        <v>14.434412330000001</v>
       </c>
       <c r="E64">
-        <v>13.14712057</v>
+        <v>128.25757949999999</v>
       </c>
       <c r="F64">
-        <v>7.91</v>
+        <v>6.54</v>
       </c>
       <c r="G64">
-        <v>8.07</v>
+        <v>7.31</v>
       </c>
       <c r="H64">
-        <v>8.98</v>
+        <v>48098.187239999999</v>
       </c>
       <c r="I64">
-        <v>124489.37850000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C65">
-        <v>110.8686067</v>
+        <v>70.455819410000004</v>
       </c>
       <c r="D65">
-        <v>14.434412330000001</v>
+        <v>90.325318920000001</v>
       </c>
       <c r="E65">
-        <v>128.25757949999999</v>
+        <v>33.074153180000003</v>
       </c>
       <c r="F65">
-        <v>6.54</v>
+        <v>6.73</v>
       </c>
       <c r="G65">
-        <v>7.31</v>
+        <v>6.47</v>
       </c>
       <c r="H65">
-        <v>8.7100000000000009</v>
+        <v>52333.327429999998</v>
       </c>
       <c r="I65">
-        <v>48098.187239999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C66">
-        <v>70.455819410000004</v>
+        <v>58.43755049</v>
       </c>
       <c r="D66">
-        <v>90.325318920000001</v>
+        <v>41.169493930000002</v>
       </c>
       <c r="E66">
-        <v>33.074153180000003</v>
+        <v>7.0951681029999998</v>
       </c>
       <c r="F66">
-        <v>6.73</v>
+        <v>5.86</v>
       </c>
       <c r="G66">
-        <v>6.47</v>
+        <v>7.77</v>
       </c>
       <c r="H66">
-        <v>8.9700000000000006</v>
+        <v>10072.04853</v>
       </c>
       <c r="I66">
-        <v>52333.327429999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C67">
-        <v>58.43755049</v>
+        <v>171.3807463</v>
       </c>
       <c r="D67">
-        <v>41.169493930000002</v>
+        <v>33.754812559999998</v>
       </c>
       <c r="E67">
-        <v>7.0951681029999998</v>
+        <v>113.0691467</v>
       </c>
       <c r="F67">
-        <v>5.86</v>
+        <v>7.78</v>
       </c>
       <c r="G67">
-        <v>7.77</v>
+        <v>7.6</v>
       </c>
       <c r="H67">
-        <v>7.28</v>
+        <v>44972.343840000001</v>
       </c>
       <c r="I67">
-        <v>10072.04853</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C68">
-        <v>171.3807463</v>
+        <v>121.8932657</v>
       </c>
       <c r="D68">
-        <v>33.754812559999998</v>
+        <v>29.27987796</v>
       </c>
       <c r="E68">
-        <v>113.0691467</v>
+        <v>12.541069719999999</v>
       </c>
       <c r="F68">
-        <v>7.78</v>
+        <v>4.75</v>
       </c>
       <c r="G68">
-        <v>7.6</v>
+        <v>7.32</v>
       </c>
       <c r="H68">
-        <v>8.5</v>
+        <v>9266.5753829999994</v>
       </c>
       <c r="I68">
-        <v>44972.343840000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C69">
-        <v>121.8932657</v>
+        <v>26.78190073</v>
       </c>
       <c r="D69">
-        <v>29.27987796</v>
+        <v>87.885353980000005</v>
       </c>
       <c r="E69">
-        <v>12.541069719999999</v>
+        <v>12.185218150000001</v>
       </c>
       <c r="F69">
-        <v>4.75</v>
+        <v>5.33</v>
       </c>
       <c r="G69">
-        <v>7.32</v>
+        <v>6.28</v>
       </c>
       <c r="H69">
-        <v>7.94</v>
+        <v>33506.261489999997</v>
       </c>
       <c r="I69">
-        <v>9266.5753829999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C70">
-        <v>26.78190073</v>
+        <v>37.055511840000001</v>
       </c>
       <c r="D70">
-        <v>87.885353980000005</v>
+        <v>6.8486480329999999</v>
       </c>
       <c r="E70">
-        <v>12.185218150000001</v>
+        <v>4.5062377759999999</v>
       </c>
       <c r="F70">
-        <v>5.33</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="G70">
-        <v>6.28</v>
+        <v>6.64</v>
       </c>
       <c r="H70">
-        <v>7.01</v>
+        <v>5491.6937829999997</v>
       </c>
       <c r="I70">
-        <v>33506.261489999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C71">
-        <v>37.055511840000001</v>
+        <v>84.259798090000004</v>
       </c>
       <c r="D71">
-        <v>6.8486480329999999</v>
+        <v>252.63395399999999</v>
       </c>
       <c r="E71">
-        <v>4.5062377759999999</v>
+        <v>12.893633769999999</v>
       </c>
       <c r="F71">
-        <v>5.1100000000000003</v>
+        <v>7.17</v>
       </c>
       <c r="G71">
-        <v>6.64</v>
+        <v>7.04</v>
       </c>
       <c r="H71">
-        <v>6.4</v>
+        <v>49777.929300000003</v>
       </c>
       <c r="I71">
-        <v>5491.6937829999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C72">
-        <v>84.259798090000004</v>
+        <v>74.194281369999999</v>
       </c>
       <c r="D72">
-        <v>252.63395399999999</v>
+        <v>62.545479649999997</v>
       </c>
       <c r="E72">
-        <v>12.893633769999999</v>
+        <v>11.38171299</v>
       </c>
       <c r="F72">
-        <v>7.17</v>
+        <v>5.26</v>
       </c>
       <c r="G72">
-        <v>7.04</v>
+        <v>6.03</v>
       </c>
       <c r="H72">
-        <v>8</v>
+        <v>51379.883329999997</v>
       </c>
       <c r="I72">
-        <v>49777.929300000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C73">
-        <v>74.194281369999999</v>
+        <v>33.206904850000001</v>
       </c>
       <c r="D73">
-        <v>62.545479649999997</v>
+        <v>43.621997970000002</v>
       </c>
       <c r="E73">
-        <v>11.38171299</v>
+        <v>7.2881437079999998</v>
       </c>
       <c r="F73">
-        <v>5.26</v>
+        <v>4.41</v>
       </c>
       <c r="G73">
         <v>6.03</v>
       </c>
       <c r="H73">
-        <v>7.35</v>
+        <v>6139.7778879999996</v>
       </c>
       <c r="I73">
-        <v>51379.883329999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C74">
-        <v>33.206904850000001</v>
+        <v>82.957512679999994</v>
       </c>
       <c r="D74">
-        <v>43.621997970000002</v>
+        <v>27.460764050000002</v>
       </c>
       <c r="E74">
-        <v>7.2881437079999998</v>
+        <v>2.968213687</v>
       </c>
       <c r="F74">
-        <v>4.41</v>
+        <v>4.42</v>
       </c>
       <c r="G74">
-        <v>6.03</v>
+        <v>5.76</v>
       </c>
       <c r="H74">
-        <v>7.38</v>
+        <v>8183.0328650000001</v>
       </c>
       <c r="I74">
-        <v>6139.7778879999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C75">
-        <v>82.957512679999994</v>
+        <v>47.457491840000003</v>
       </c>
       <c r="D75">
-        <v>27.460764050000002</v>
+        <v>5.1896336439999997</v>
       </c>
       <c r="E75">
-        <v>2.968213687</v>
+        <v>56.832817220000003</v>
       </c>
       <c r="F75">
-        <v>4.42</v>
+        <v>7.1</v>
       </c>
       <c r="G75">
-        <v>5.76</v>
+        <v>7.44</v>
       </c>
       <c r="H75">
-        <v>7.4</v>
+        <v>37681.045239999999</v>
       </c>
       <c r="I75">
-        <v>8183.0328650000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C76">
-        <v>47.457491840000003</v>
+        <v>22.835689210000002</v>
       </c>
       <c r="D76">
-        <v>5.1896336439999997</v>
+        <v>19.795219880000001</v>
       </c>
       <c r="E76">
-        <v>56.832817220000003</v>
+        <v>36.21951464</v>
       </c>
       <c r="F76">
-        <v>7.1</v>
+        <v>3.53</v>
       </c>
       <c r="G76">
-        <v>7.44</v>
+        <v>6.02</v>
       </c>
       <c r="H76">
-        <v>8.77</v>
+        <v>11474.75058</v>
       </c>
       <c r="I76">
-        <v>37681.045239999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C77">
-        <v>22.835689210000002</v>
+        <v>41.327726470000002</v>
       </c>
       <c r="D77">
-        <v>19.795219880000001</v>
+        <v>14.06176902</v>
       </c>
       <c r="E77">
-        <v>36.21951464</v>
+        <v>3.6506515739999998</v>
       </c>
       <c r="F77">
-        <v>3.53</v>
+        <v>4.46</v>
       </c>
       <c r="G77">
-        <v>6.02</v>
+        <v>5.77</v>
       </c>
       <c r="H77">
-        <v>4.16</v>
+        <v>2577.5454410000002</v>
       </c>
       <c r="I77">
-        <v>11474.75058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C78">
-        <v>41.327726470000002</v>
+        <v>46.770148740000003</v>
       </c>
       <c r="D78">
-        <v>14.06176902</v>
+        <v>11.618263369999999</v>
       </c>
       <c r="E78">
-        <v>3.6506515739999998</v>
+        <v>16.110658539999999</v>
       </c>
       <c r="F78">
-        <v>4.46</v>
+        <v>3.3</v>
       </c>
       <c r="G78">
-        <v>5.77</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="H78">
-        <v>6.54</v>
+        <v>11456.07681</v>
       </c>
       <c r="I78">
-        <v>2577.5454410000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C79">
-        <v>46.770148740000003</v>
+        <v>46.894042499999998</v>
       </c>
       <c r="D79">
-        <v>11.618263369999999</v>
+        <v>47.14184874</v>
       </c>
       <c r="E79">
-        <v>16.110658539999999</v>
+        <v>10.51753768</v>
       </c>
       <c r="F79">
-        <v>3.3</v>
+        <v>7.08</v>
       </c>
       <c r="G79">
-        <v>4.2699999999999996</v>
+        <v>6.82</v>
       </c>
       <c r="H79">
-        <v>5.76</v>
+        <v>46651.21458</v>
       </c>
       <c r="I79">
-        <v>11456.07681</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C80">
-        <v>46.894042499999998</v>
+        <v>89.033015210000002</v>
       </c>
       <c r="D80">
-        <v>47.14184874</v>
+        <v>88.824495170000006</v>
       </c>
       <c r="E80">
-        <v>10.51753768</v>
+        <v>52.421013549999998</v>
       </c>
       <c r="F80">
-        <v>7.08</v>
+        <v>8.57</v>
       </c>
       <c r="G80">
-        <v>6.82</v>
+        <v>7.58</v>
       </c>
       <c r="H80">
-        <v>8.75</v>
+        <v>132573.9944</v>
       </c>
       <c r="I80">
-        <v>46651.21458</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C81">
-        <v>89.033015210000002</v>
+        <v>21.705012450000002</v>
       </c>
       <c r="D81">
-        <v>88.824495170000006</v>
+        <v>3.070518109</v>
       </c>
       <c r="E81">
-        <v>52.421013549999998</v>
+        <v>2.8410487839999998</v>
       </c>
       <c r="F81">
-        <v>8.57</v>
+        <v>3.15</v>
       </c>
       <c r="G81">
-        <v>7.58</v>
+        <v>5.5</v>
       </c>
       <c r="H81">
-        <v>8.9700000000000006</v>
+        <v>1602.7136840000001</v>
       </c>
       <c r="I81">
-        <v>132573.9944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C82">
-        <v>21.705012450000002</v>
+        <v>92.837887050000006</v>
       </c>
       <c r="D82">
-        <v>3.070518109</v>
+        <v>8.0453473730000002</v>
       </c>
       <c r="E82">
-        <v>2.8410487839999998</v>
+        <v>50.666266069999999</v>
       </c>
       <c r="F82">
-        <v>3.15</v>
+        <v>5.43</v>
       </c>
       <c r="G82">
-        <v>5.5</v>
+        <v>7.51</v>
       </c>
       <c r="H82">
-        <v>6.87</v>
+        <v>32079.151519999999</v>
       </c>
       <c r="I82">
-        <v>1602.7136840000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C83">
-        <v>92.837887050000006</v>
+        <v>38.419689939999998</v>
       </c>
       <c r="D83">
-        <v>8.0453473730000002</v>
+        <v>4.3219348200000001</v>
       </c>
       <c r="E83">
-        <v>50.666266069999999</v>
+        <v>3.9882261049999999</v>
       </c>
       <c r="F83">
-        <v>5.43</v>
+        <v>3.46</v>
       </c>
       <c r="G83">
-        <v>7.51</v>
+        <v>5.49</v>
       </c>
       <c r="H83">
-        <v>7.89</v>
+        <v>2808.5224739999999</v>
       </c>
       <c r="I83">
-        <v>32079.151519999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C84">
-        <v>38.419689939999998</v>
+        <v>110.6767761</v>
       </c>
       <c r="D84">
-        <v>4.3219348200000001</v>
+        <v>42.52134203</v>
       </c>
       <c r="E84">
-        <v>3.9882261049999999</v>
+        <v>22.128453499999999</v>
       </c>
       <c r="F84">
-        <v>3.46</v>
+        <v>7.19</v>
       </c>
       <c r="G84">
-        <v>5.49</v>
+        <v>7.3</v>
       </c>
       <c r="H84">
-        <v>6.38</v>
+        <v>57784.822670000001</v>
       </c>
       <c r="I84">
-        <v>2808.5224739999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C85">
-        <v>110.6767761</v>
+        <v>279.30378569999999</v>
       </c>
       <c r="D85">
-        <v>42.52134203</v>
+        <v>11.44125405</v>
       </c>
       <c r="E85">
-        <v>22.128453499999999</v>
+        <v>11.36884105</v>
       </c>
       <c r="F85">
-        <v>7.19</v>
+        <v>3.44</v>
       </c>
       <c r="G85">
-        <v>7.3</v>
+        <v>5.93</v>
       </c>
       <c r="H85">
-        <v>9.01</v>
+        <v>6053.2617870000004</v>
       </c>
       <c r="I85">
-        <v>57784.822670000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C86">
-        <v>279.30378569999999</v>
+        <v>113.3890676</v>
       </c>
       <c r="D86">
-        <v>11.44125405</v>
+        <v>14.431082679999999</v>
       </c>
       <c r="E86">
-        <v>11.36884105</v>
+        <v>41.793914770000001</v>
       </c>
       <c r="F86">
-        <v>3.44</v>
+        <v>6.68</v>
       </c>
       <c r="G86">
-        <v>5.93</v>
+        <v>6.96</v>
       </c>
       <c r="H86">
-        <v>6.79</v>
+        <v>24788.766500000002</v>
       </c>
       <c r="I86">
-        <v>6053.2617870000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C87">
-        <v>113.3890676</v>
+        <v>25.801968710000001</v>
       </c>
       <c r="D87">
-        <v>14.431082679999999</v>
+        <v>66.460932940000006</v>
       </c>
       <c r="E87">
-        <v>41.793914770000001</v>
+        <v>12.38191686</v>
       </c>
       <c r="F87">
-        <v>6.68</v>
+        <v>4.68</v>
       </c>
       <c r="G87">
-        <v>6.96</v>
+        <v>6.17</v>
       </c>
       <c r="H87">
-        <v>8.76</v>
+        <v>21392.11146</v>
       </c>
       <c r="I87">
-        <v>24788.766500000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C88">
-        <v>25.801968710000001</v>
+        <v>34.483009119999998</v>
       </c>
       <c r="D88">
-        <v>66.460932940000006</v>
+        <v>57.744555120000001</v>
       </c>
       <c r="E88">
-        <v>12.38191686</v>
+        <v>29.218942989999999</v>
       </c>
       <c r="F88">
-        <v>4.68</v>
+        <v>5.87</v>
       </c>
       <c r="G88">
-        <v>6.17</v>
+        <v>5.58</v>
       </c>
       <c r="H88">
-        <v>8.1</v>
+        <v>15358.015359999999</v>
       </c>
       <c r="I88">
-        <v>21392.11146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C89">
-        <v>34.483009119999998</v>
+        <v>51.620099449999998</v>
       </c>
       <c r="D89">
-        <v>57.744555120000001</v>
+        <v>60.445168029999998</v>
       </c>
       <c r="E89">
-        <v>29.218942989999999</v>
+        <v>41.048908079999997</v>
       </c>
       <c r="F89">
-        <v>5.87</v>
+        <v>5.85</v>
       </c>
       <c r="G89">
-        <v>5.58</v>
+        <v>6.49</v>
       </c>
       <c r="H89">
-        <v>7.61</v>
+        <v>15310.434950000001</v>
       </c>
       <c r="I89">
-        <v>15358.015359999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C90">
-        <v>51.620099449999998</v>
+        <v>58.541567559999997</v>
       </c>
       <c r="D90">
-        <v>60.445168029999998</v>
+        <v>45.239523609999999</v>
       </c>
       <c r="E90">
-        <v>41.048908079999997</v>
+        <v>81.234448909999998</v>
       </c>
       <c r="F90">
-        <v>5.85</v>
+        <v>5.68</v>
       </c>
       <c r="G90">
-        <v>6.49</v>
+        <v>6.66</v>
       </c>
       <c r="H90">
-        <v>7.29</v>
+        <v>25430.487420000001</v>
       </c>
       <c r="I90">
-        <v>15310.434950000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C91">
-        <v>58.541567559999997</v>
+        <v>84.843125970000003</v>
       </c>
       <c r="D91">
-        <v>45.239523609999999</v>
+        <v>29.549457050000001</v>
       </c>
       <c r="E91">
-        <v>81.234448909999998</v>
+        <v>21.614273950000001</v>
       </c>
       <c r="F91">
-        <v>5.68</v>
+        <v>5.35</v>
       </c>
       <c r="G91">
-        <v>6.66</v>
+        <v>6.29</v>
       </c>
       <c r="H91">
-        <v>8.2899999999999991</v>
+        <v>8666.0791019999997</v>
       </c>
       <c r="I91">
-        <v>25430.487420000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C92">
-        <v>84.843125970000003</v>
+        <v>48.368984400000002</v>
       </c>
       <c r="D92">
-        <v>29.549457050000001</v>
+        <v>8.7504686760000006</v>
       </c>
       <c r="E92">
-        <v>21.614273950000001</v>
+        <v>3.7382803240000002</v>
       </c>
       <c r="F92">
-        <v>5.35</v>
+        <v>4.58</v>
       </c>
       <c r="G92">
-        <v>6.29</v>
+        <v>5.77</v>
       </c>
       <c r="H92">
-        <v>7.08</v>
+        <v>1476.6656029999999</v>
       </c>
       <c r="I92">
-        <v>8666.0791019999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C93">
-        <v>48.368984400000002</v>
+        <v>52.945593260000003</v>
       </c>
       <c r="D93">
-        <v>8.7504686760000006</v>
+        <v>8.4679066340000002</v>
       </c>
       <c r="E93">
-        <v>3.7382803240000002</v>
+        <v>68.462748410000003</v>
       </c>
       <c r="F93">
-        <v>4.58</v>
+        <v>6.23</v>
       </c>
       <c r="G93">
-        <v>5.77</v>
+        <v>5.16</v>
       </c>
       <c r="H93">
-        <v>6.55</v>
+        <v>9953.097522</v>
       </c>
       <c r="I93">
-        <v>1476.6656029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C94">
-        <v>52.945593260000003</v>
+        <v>91.331339009999994</v>
       </c>
       <c r="D94">
-        <v>8.4679066340000002</v>
+        <v>23.720665740000001</v>
       </c>
       <c r="E94">
-        <v>68.462748410000003</v>
+        <v>21.793272859999998</v>
       </c>
       <c r="F94">
-        <v>6.23</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="G94">
-        <v>5.16</v>
+        <v>7.14</v>
       </c>
       <c r="H94">
-        <v>6.35</v>
+        <v>4763.3875109999999</v>
       </c>
       <c r="I94">
-        <v>9953.097522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C95">
-        <v>91.331339009999994</v>
+        <v>89.829445980000003</v>
       </c>
       <c r="D95">
-        <v>23.720665740000001</v>
+        <v>5.17895941</v>
       </c>
       <c r="E95">
-        <v>21.793272859999998</v>
+        <v>34.150432090000002</v>
       </c>
       <c r="F95">
-        <v>4.9800000000000004</v>
+        <v>8.93</v>
       </c>
       <c r="G95">
-        <v>7.14</v>
+        <v>7.15</v>
       </c>
       <c r="H95">
-        <v>6</v>
+        <v>71324.036030000003</v>
       </c>
       <c r="I95">
-        <v>4763.3875109999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C96">
-        <v>89.829445980000003</v>
+        <v>113.9540719</v>
       </c>
       <c r="D96">
-        <v>5.17895941</v>
+        <v>16.909825470000001</v>
       </c>
       <c r="E96">
-        <v>34.150432090000002</v>
+        <v>50.873594249999996</v>
       </c>
       <c r="F96">
-        <v>8.93</v>
+        <v>8.73</v>
       </c>
       <c r="G96">
-        <v>7.15</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="H96">
-        <v>9.14</v>
+        <v>49618.525329999997</v>
       </c>
       <c r="I96">
-        <v>71324.036030000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C97">
-        <v>113.9540719</v>
+        <v>30.441969159999999</v>
       </c>
       <c r="D97">
-        <v>16.909825470000001</v>
+        <v>8.0249686340000004</v>
       </c>
       <c r="E97">
-        <v>50.873594249999996</v>
+        <v>21.794125340000001</v>
       </c>
       <c r="F97">
-        <v>8.73</v>
+        <v>3.48</v>
       </c>
       <c r="G97">
-        <v>8.5399999999999991</v>
+        <v>5.9</v>
       </c>
       <c r="H97">
-        <v>8.93</v>
+        <v>7277.8226480000003</v>
       </c>
       <c r="I97">
-        <v>49618.525329999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C98">
-        <v>30.441969159999999</v>
+        <v>15.4402431</v>
       </c>
       <c r="D98">
-        <v>8.0249686340000004</v>
+        <v>2.0251019640000001</v>
       </c>
       <c r="E98">
-        <v>21.794125340000001</v>
+        <v>1.597580438</v>
       </c>
       <c r="F98">
-        <v>3.48</v>
+        <v>3.33</v>
       </c>
       <c r="G98">
-        <v>5.9</v>
+        <v>5.95</v>
       </c>
       <c r="H98">
-        <v>7.9</v>
+        <v>1717.5189150000001</v>
       </c>
       <c r="I98">
-        <v>7277.8226480000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C99">
-        <v>15.4402431</v>
+        <v>21.89803071</v>
       </c>
       <c r="D99">
-        <v>2.0251019640000001</v>
+        <v>3.5087404000000002</v>
       </c>
       <c r="E99">
-        <v>1.597580438</v>
+        <v>14.00099359</v>
       </c>
       <c r="F99">
-        <v>3.33</v>
+        <v>3.98</v>
       </c>
       <c r="G99">
-        <v>5.95</v>
+        <v>6.47</v>
       </c>
       <c r="H99">
-        <v>5.75</v>
+        <v>5552.8376500000004</v>
       </c>
       <c r="I99">
-        <v>1717.5189150000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C100">
-        <v>21.89803071</v>
+        <v>60.527439090000001</v>
       </c>
       <c r="D100">
-        <v>3.5087404000000002</v>
+        <v>66.790621619999996</v>
       </c>
       <c r="E100">
-        <v>14.00099359</v>
+        <v>25.18659177</v>
       </c>
       <c r="F100">
-        <v>3.98</v>
+        <v>4.83</v>
       </c>
       <c r="G100">
-        <v>6.47</v>
+        <v>7.2</v>
       </c>
       <c r="H100">
-        <v>3.49</v>
+        <v>22822.288809999998</v>
       </c>
       <c r="I100">
-        <v>5552.8376500000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C101">
-        <v>60.527439090000001</v>
+        <v>61.32301657</v>
       </c>
       <c r="D101">
-        <v>66.790621619999996</v>
+        <v>15.96025124</v>
       </c>
       <c r="E101">
-        <v>25.18659177</v>
+        <v>51.892306990000002</v>
       </c>
       <c r="F101">
-        <v>4.83</v>
+        <v>5.37</v>
       </c>
       <c r="G101">
-        <v>7.2</v>
+        <v>6.44</v>
       </c>
       <c r="H101">
-        <v>7.72</v>
+        <v>39780.21228</v>
       </c>
       <c r="I101">
-        <v>22822.288809999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C102">
-        <v>61.32301657</v>
+        <v>28.733670579999998</v>
       </c>
       <c r="D102">
-        <v>15.96025124</v>
+        <v>11.48540665</v>
       </c>
       <c r="E102">
-        <v>51.892306990000002</v>
+        <v>10.54154409</v>
       </c>
       <c r="F102">
-        <v>5.37</v>
+        <v>3.93</v>
       </c>
       <c r="G102">
-        <v>6.44</v>
+        <v>5.95</v>
       </c>
       <c r="H102">
-        <v>7.45</v>
+        <v>5526.2792829999999</v>
       </c>
       <c r="I102">
-        <v>39780.21228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C103">
-        <v>28.733670579999998</v>
+        <v>112.76622039999999</v>
       </c>
       <c r="D103">
-        <v>11.48540665</v>
+        <v>19.045621749999999</v>
       </c>
       <c r="E103">
-        <v>10.54154409</v>
+        <v>72.177709410000006</v>
       </c>
       <c r="F103">
-        <v>3.93</v>
+        <v>5.71</v>
       </c>
       <c r="G103">
-        <v>5.95</v>
+        <v>6.9</v>
       </c>
       <c r="H103">
-        <v>5.97</v>
+        <v>33833.026510000003</v>
       </c>
       <c r="I103">
-        <v>5526.2792829999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C104">
-        <v>112.76622039999999</v>
+        <v>44.830398969999997</v>
       </c>
       <c r="D104">
-        <v>19.045621749999999</v>
+        <v>9.9065475410000001</v>
       </c>
       <c r="E104">
-        <v>72.177709410000006</v>
+        <v>28.366857769999999</v>
       </c>
       <c r="F104">
-        <v>5.71</v>
+        <v>4.51</v>
       </c>
       <c r="G104">
-        <v>6.9</v>
+        <v>6.64</v>
       </c>
       <c r="H104">
-        <v>8.8699999999999992</v>
+        <v>15259.145630000001</v>
       </c>
       <c r="I104">
-        <v>33833.026510000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C105">
-        <v>44.830398969999997</v>
+        <v>33.808131119999999</v>
       </c>
       <c r="D105">
-        <v>9.9065475410000001</v>
+        <v>121.5158012</v>
       </c>
       <c r="E105">
-        <v>28.366857769999999</v>
+        <v>5.1816141880000002</v>
       </c>
       <c r="F105">
-        <v>4.51</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G105">
-        <v>6.64</v>
+        <v>6.85</v>
       </c>
       <c r="H105">
-        <v>7.4</v>
+        <v>15559.82164</v>
       </c>
       <c r="I105">
-        <v>15259.145630000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C106">
-        <v>33.808131119999999</v>
+        <v>57.458015349999997</v>
       </c>
       <c r="D106">
-        <v>121.5158012</v>
+        <v>8.9312489759999991</v>
       </c>
       <c r="E106">
-        <v>5.1816141880000002</v>
+        <v>29.08212339</v>
       </c>
       <c r="F106">
-        <v>5.0999999999999996</v>
+        <v>4.55</v>
       </c>
       <c r="G106">
-        <v>6.85</v>
+        <v>6.55</v>
       </c>
       <c r="H106">
-        <v>8.48</v>
+        <v>9457.1039540000002</v>
       </c>
       <c r="I106">
-        <v>15559.82164</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C107">
-        <v>57.458015349999997</v>
+        <v>46.029374079999997</v>
       </c>
       <c r="D107">
-        <v>8.9312489759999991</v>
+        <v>22.636832399999999</v>
       </c>
       <c r="E107">
-        <v>29.08212339</v>
+        <v>68.346684400000001</v>
       </c>
       <c r="F107">
-        <v>4.55</v>
+        <v>6.46</v>
       </c>
       <c r="G107">
-        <v>6.55</v>
+        <v>6.4</v>
       </c>
       <c r="H107">
-        <v>7.15</v>
+        <v>43405.021580000001</v>
       </c>
       <c r="I107">
-        <v>9457.1039540000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C108">
-        <v>46.029374079999997</v>
+        <v>93.873881920000002</v>
       </c>
       <c r="D108">
-        <v>22.636832399999999</v>
+        <v>29.73240723</v>
       </c>
       <c r="E108">
-        <v>68.346684400000001</v>
+        <v>159.33662029999999</v>
       </c>
       <c r="F108">
-        <v>6.46</v>
+        <v>7.87</v>
       </c>
       <c r="G108">
-        <v>6.4</v>
+        <v>6.65</v>
       </c>
       <c r="H108">
-        <v>8.43</v>
+        <v>41070.86131</v>
       </c>
       <c r="I108">
-        <v>43405.021580000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C109">
-        <v>93.873881920000002</v>
+        <v>34.533376519999997</v>
       </c>
       <c r="D109">
-        <v>29.73240723</v>
+        <v>21.51557</v>
       </c>
       <c r="E109">
-        <v>159.33662029999999</v>
+        <v>63.384044109999998</v>
       </c>
       <c r="F109">
-        <v>7.87</v>
+        <v>6.88</v>
       </c>
       <c r="G109">
-        <v>6.65</v>
+        <v>6.35</v>
       </c>
       <c r="H109">
-        <v>8.91</v>
+        <v>39380.236140000001</v>
       </c>
       <c r="I109">
-        <v>41070.86131</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C110">
-        <v>34.533376519999997</v>
+        <v>23.937157429999999</v>
       </c>
       <c r="D110">
-        <v>21.51557</v>
+        <v>4.1102840140000003</v>
       </c>
       <c r="E110">
-        <v>63.384044109999998</v>
+        <v>3.150822904</v>
       </c>
       <c r="F110">
-        <v>6.88</v>
+        <v>5.97</v>
       </c>
       <c r="G110">
-        <v>6.35</v>
+        <v>6.5</v>
       </c>
       <c r="H110">
-        <v>8.52</v>
+        <v>2892.4596489999999</v>
       </c>
       <c r="I110">
-        <v>39380.236140000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C111">
-        <v>23.937157429999999</v>
+        <v>53.795286660000002</v>
       </c>
       <c r="D111">
-        <v>4.1102840140000003</v>
+        <v>67.026063739999998</v>
       </c>
       <c r="E111">
-        <v>3.150822904</v>
+        <v>8.0591304259999994</v>
       </c>
       <c r="F111">
-        <v>5.97</v>
+        <v>6.45</v>
       </c>
       <c r="G111">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="H111">
-        <v>7.53</v>
+        <v>67178.590230000002</v>
       </c>
       <c r="I111">
-        <v>2892.4596489999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C112">
-        <v>53.795286660000002</v>
+        <v>49.777137969999998</v>
       </c>
       <c r="D112">
-        <v>67.026063739999998</v>
+        <v>5.2053860009999999</v>
       </c>
       <c r="E112">
-        <v>8.0591304259999994</v>
+        <v>6.797731271</v>
       </c>
       <c r="F112">
-        <v>6.45</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="G112">
-        <v>6.7</v>
+        <v>6.01</v>
       </c>
       <c r="H112">
-        <v>6.97</v>
+        <v>4228.7338259999997</v>
       </c>
       <c r="I112">
-        <v>67178.590230000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C113">
-        <v>49.777137969999998</v>
+        <v>47.941844070000002</v>
       </c>
       <c r="D113">
-        <v>5.2053860009999999</v>
+        <v>24.317630300000001</v>
       </c>
       <c r="E113">
-        <v>6.797731271</v>
+        <v>53.80363303</v>
       </c>
       <c r="F113">
-        <v>4.4800000000000004</v>
+        <v>5.42</v>
       </c>
       <c r="G113">
-        <v>6.01</v>
+        <v>6.49</v>
       </c>
       <c r="H113">
-        <v>6.85</v>
+        <v>24634.486290000001</v>
       </c>
       <c r="I113">
-        <v>4228.7338259999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C114">
-        <v>47.941844070000002</v>
+        <v>25.766106019999999</v>
       </c>
       <c r="D114">
-        <v>24.317630300000001</v>
+        <v>31.403747509999999</v>
       </c>
       <c r="E114">
-        <v>53.80363303</v>
+        <v>75.368994029999996</v>
       </c>
       <c r="F114">
-        <v>5.42</v>
+        <v>5.96</v>
       </c>
       <c r="G114">
-        <v>6.49</v>
+        <v>6.77</v>
       </c>
       <c r="H114">
-        <v>8.06</v>
+        <v>27978.177060000002</v>
       </c>
       <c r="I114">
-        <v>24634.486290000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C115">
-        <v>25.766106019999999</v>
+        <v>244.5847698</v>
       </c>
       <c r="D115">
-        <v>31.403747509999999</v>
+        <v>6.431087271</v>
       </c>
       <c r="E115">
-        <v>75.368994029999996</v>
+        <v>51.085815500000002</v>
       </c>
       <c r="F115">
-        <v>5.96</v>
+        <v>8.58</v>
       </c>
       <c r="G115">
-        <v>6.77</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H115">
-        <v>8.36</v>
+        <v>133571.96239999999</v>
       </c>
       <c r="I115">
-        <v>27978.177060000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C116">
-        <v>244.5847698</v>
+        <v>52.320851859999998</v>
       </c>
       <c r="D116">
-        <v>6.431087271</v>
+        <v>60.75290219</v>
       </c>
       <c r="E116">
-        <v>51.085815500000002</v>
+        <v>20.70374777</v>
       </c>
       <c r="F116">
-        <v>8.58</v>
+        <v>6.71</v>
       </c>
       <c r="G116">
-        <v>8.1999999999999993</v>
+        <v>6.75</v>
       </c>
       <c r="H116">
-        <v>9.56</v>
+        <v>38623.671060000001</v>
       </c>
       <c r="I116">
-        <v>133571.96239999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C117">
-        <v>52.320851859999998</v>
+        <v>60.155898559999997</v>
       </c>
       <c r="D117">
-        <v>60.75290219</v>
+        <v>21.413837470000001</v>
       </c>
       <c r="E117">
-        <v>20.70374777</v>
+        <v>71.156397409999997</v>
       </c>
       <c r="F117">
-        <v>6.71</v>
+        <v>6.78</v>
       </c>
       <c r="G117">
-        <v>6.75</v>
+        <v>6.28</v>
       </c>
       <c r="H117">
-        <v>8.58</v>
+        <v>47064.151790000004</v>
       </c>
       <c r="I117">
-        <v>38623.671060000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C118">
-        <v>60.155898559999997</v>
+        <v>46.912863350000002</v>
       </c>
       <c r="D118">
-        <v>21.413837470000001</v>
+        <v>8.4769962260000007</v>
       </c>
       <c r="E118">
-        <v>71.156397409999997</v>
+        <v>46.098015140000001</v>
       </c>
       <c r="F118">
-        <v>6.78</v>
+        <v>5.91</v>
       </c>
       <c r="G118">
-        <v>6.28</v>
+        <v>6.48</v>
       </c>
       <c r="H118">
-        <v>8.4499999999999993</v>
+        <v>13777.19275</v>
       </c>
       <c r="I118">
-        <v>47064.151790000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C119">
-        <v>46.912863350000002</v>
+        <v>85.356599200000005</v>
       </c>
       <c r="D119">
-        <v>8.4769962260000007</v>
+        <v>89.812954219999995</v>
       </c>
       <c r="E119">
-        <v>46.098015140000001</v>
+        <v>33.485799559999997</v>
       </c>
       <c r="F119">
-        <v>5.91</v>
+        <v>7.43</v>
       </c>
       <c r="G119">
-        <v>6.48</v>
+        <v>7.14</v>
       </c>
       <c r="H119">
-        <v>6.96</v>
+        <v>46649.563540000003</v>
       </c>
       <c r="I119">
-        <v>13777.19275</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C120">
-        <v>85.356599200000005</v>
+        <v>76.604358050000002</v>
       </c>
       <c r="D120">
-        <v>89.812954219999995</v>
+        <v>27.85321356</v>
       </c>
       <c r="E120">
-        <v>33.485799559999997</v>
+        <v>10.444955090000001</v>
       </c>
       <c r="F120">
-        <v>7.43</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G120">
-        <v>7.14</v>
+        <v>5.9</v>
       </c>
       <c r="H120">
-        <v>8.66</v>
+        <v>18742.587380000001</v>
       </c>
       <c r="I120">
-        <v>46649.563540000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C121">
-        <v>76.604358050000002</v>
+        <v>69.098434819999994</v>
       </c>
       <c r="D121">
-        <v>27.85321356</v>
+        <v>10.586043849999999</v>
       </c>
       <c r="E121">
-        <v>10.444955090000001</v>
+        <v>24.59290536</v>
       </c>
       <c r="F121">
-        <v>4.9000000000000004</v>
+        <v>8.58</v>
       </c>
       <c r="G121">
-        <v>5.9</v>
+        <v>6.88</v>
       </c>
       <c r="H121">
-        <v>6.63</v>
+        <v>63215.436300000001</v>
       </c>
       <c r="I121">
-        <v>18742.587380000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C122">
-        <v>69.098434819999994</v>
+        <v>171.23291750000001</v>
       </c>
       <c r="D122">
-        <v>10.586043849999999</v>
+        <v>89.491442840000005</v>
       </c>
       <c r="E122">
-        <v>24.59290536</v>
+        <v>35.053386320000001</v>
       </c>
       <c r="F122">
-        <v>8.58</v>
+        <v>8.32</v>
       </c>
       <c r="G122">
-        <v>6.88</v>
+        <v>7.65</v>
       </c>
       <c r="H122">
-        <v>8.7100000000000009</v>
+        <v>82777.293579999998</v>
       </c>
       <c r="I122">
-        <v>63215.436300000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C123">
-        <v>171.23291750000001</v>
+        <v>28.248791229999998</v>
       </c>
       <c r="D123">
-        <v>89.491442840000005</v>
+        <v>3.637605368</v>
       </c>
       <c r="E123">
-        <v>35.053386320000001</v>
+        <v>12.369560160000001</v>
       </c>
       <c r="F123">
-        <v>8.32</v>
+        <v>3.77</v>
       </c>
       <c r="G123">
-        <v>7.65</v>
+        <v>6.11</v>
       </c>
       <c r="H123">
-        <v>8.11</v>
+        <v>4213.7561839999998</v>
       </c>
       <c r="I123">
-        <v>82777.293579999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C124">
-        <v>28.248791229999998</v>
+        <v>17.76814881</v>
       </c>
       <c r="D124">
-        <v>3.637605368</v>
+        <v>2.3578807030000002</v>
       </c>
       <c r="E124">
-        <v>12.369560160000001</v>
+        <v>5.638881177</v>
       </c>
       <c r="F124">
-        <v>3.77</v>
+        <v>5.21</v>
       </c>
       <c r="G124">
-        <v>6.11</v>
+        <v>6.63</v>
       </c>
       <c r="H124">
-        <v>7.21</v>
+        <v>3546.9809570000002</v>
       </c>
       <c r="I124">
-        <v>4213.7561839999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C125">
-        <v>17.76814881</v>
+        <v>85.431770760000006</v>
       </c>
       <c r="D125">
-        <v>2.3578807030000002</v>
+        <v>8.6953740939999999</v>
       </c>
       <c r="E125">
-        <v>5.638881177</v>
+        <v>99.733880339999999</v>
       </c>
       <c r="F125">
-        <v>5.21</v>
+        <v>5.08</v>
       </c>
       <c r="G125">
-        <v>6.63</v>
+        <v>6.68</v>
       </c>
       <c r="H125">
-        <v>5.66</v>
+        <v>20762.795259999999</v>
       </c>
       <c r="I125">
-        <v>3546.9809570000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C126">
-        <v>85.431770760000006</v>
+        <v>53.54941273</v>
       </c>
       <c r="D126">
-        <v>8.6953740939999999</v>
+        <v>15.46547724</v>
       </c>
       <c r="E126">
-        <v>99.733880339999999</v>
+        <v>5.3792964330000004</v>
       </c>
       <c r="F126">
-        <v>5.08</v>
+        <v>4.5</v>
       </c>
       <c r="G126">
-        <v>6.68</v>
+        <v>6.82</v>
       </c>
       <c r="H126">
-        <v>7.08</v>
+        <v>5347.0075900000002</v>
       </c>
       <c r="I126">
-        <v>20762.795259999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C127">
-        <v>53.54941273</v>
+        <v>59.400937140000003</v>
       </c>
       <c r="D127">
-        <v>15.46547724</v>
+        <v>4.821386049</v>
       </c>
       <c r="E127">
-        <v>5.3792964330000004</v>
+        <v>6.9192410479999999</v>
       </c>
       <c r="F127">
-        <v>4.5</v>
+        <v>4.66</v>
       </c>
       <c r="G127">
-        <v>6.82</v>
+        <v>6.01</v>
       </c>
       <c r="H127">
-        <v>7.86</v>
+        <v>2662.2591710000002</v>
       </c>
       <c r="I127">
-        <v>5347.0075900000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C128">
-        <v>59.400937140000003</v>
+        <v>53.257576800000002</v>
       </c>
       <c r="D128">
-        <v>4.821386049</v>
+        <v>10.484923220000001</v>
       </c>
       <c r="E128">
-        <v>6.9192410479999999</v>
+        <v>44.628134719999998</v>
       </c>
       <c r="F128">
-        <v>4.66</v>
+        <v>5.39</v>
       </c>
       <c r="G128">
-        <v>6.01</v>
+        <v>6.19</v>
       </c>
       <c r="H128">
-        <v>6.24</v>
+        <v>30793.399829999998</v>
       </c>
       <c r="I128">
-        <v>2662.2591710000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C129">
-        <v>53.257576800000002</v>
+        <v>69.814194349999994</v>
       </c>
       <c r="D129">
-        <v>10.484923220000001</v>
+        <v>22.508040350000002</v>
       </c>
       <c r="E129">
-        <v>44.628134719999998</v>
+        <v>33.31803927</v>
       </c>
       <c r="F129">
-        <v>5.39</v>
+        <v>4.72</v>
       </c>
       <c r="G129">
-        <v>6.19</v>
+        <v>5.38</v>
       </c>
       <c r="H129">
-        <v>6.88</v>
+        <v>12702.453579999999</v>
       </c>
       <c r="I129">
-        <v>30793.399829999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C130">
-        <v>69.814194349999994</v>
+        <v>50.025619890000002</v>
       </c>
       <c r="D130">
-        <v>22.508040350000002</v>
+        <v>78.721392660000006</v>
       </c>
       <c r="E130">
-        <v>33.31803927</v>
+        <v>14.44276603</v>
       </c>
       <c r="F130">
-        <v>4.72</v>
+        <v>4.74</v>
       </c>
       <c r="G130">
-        <v>5.38</v>
+        <v>5.81</v>
       </c>
       <c r="H130">
-        <v>6.68</v>
+        <v>32748.318899999998</v>
       </c>
       <c r="I130">
-        <v>12702.453579999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C131">
-        <v>50.025619890000002</v>
+        <v>18.394534360000002</v>
       </c>
       <c r="D131">
-        <v>78.721392660000006</v>
+        <v>3.6319022649999999</v>
       </c>
       <c r="E131">
-        <v>14.44276603</v>
+        <v>2.3150056239999999</v>
       </c>
       <c r="F131">
-        <v>4.74</v>
+        <v>4.54</v>
       </c>
       <c r="G131">
-        <v>5.81</v>
+        <v>6.43</v>
       </c>
       <c r="H131">
-        <v>7.16</v>
+        <v>2724.9060960000002</v>
       </c>
       <c r="I131">
-        <v>32748.318899999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C132">
-        <v>18.394534360000002</v>
+        <v>33.388648500000002</v>
       </c>
       <c r="D132">
-        <v>3.6319022649999999</v>
+        <v>80.878872110000003</v>
       </c>
       <c r="E132">
-        <v>2.3150056239999999</v>
+        <v>15.43845793</v>
       </c>
       <c r="F132">
-        <v>4.54</v>
+        <v>4.53</v>
       </c>
       <c r="G132">
-        <v>6.43</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="H132">
-        <v>6.73</v>
+        <v>13787.121090000001</v>
       </c>
       <c r="I132">
-        <v>2724.9060960000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C133">
-        <v>33.388648500000002</v>
+        <v>120.3621526</v>
       </c>
       <c r="D133">
-        <v>80.878872110000003</v>
+        <v>7.6607360609999997</v>
       </c>
       <c r="E133">
-        <v>15.43845793</v>
+        <v>53.649395259999999</v>
       </c>
       <c r="F133">
-        <v>4.53</v>
+        <v>6.94</v>
       </c>
       <c r="G133">
-        <v>4.2699999999999996</v>
+        <v>6.62</v>
       </c>
       <c r="H133">
-        <v>6.04</v>
+        <v>68867.825930000006</v>
       </c>
       <c r="I133">
-        <v>13787.121090000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C134">
-        <v>120.3621526</v>
+        <v>55.559714909999997</v>
       </c>
       <c r="D134">
-        <v>7.6607360609999997</v>
+        <v>304.14972899999998</v>
       </c>
       <c r="E134">
-        <v>53.649395259999999</v>
+        <v>9.6561253360000006</v>
       </c>
       <c r="F134">
-        <v>6.94</v>
+        <v>6.29</v>
       </c>
       <c r="G134">
-        <v>6.62</v>
+        <v>6.9</v>
       </c>
       <c r="H134">
-        <v>8.6</v>
+        <v>30804.703280000002</v>
       </c>
       <c r="I134">
-        <v>68867.825930000006</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C135">
-        <v>55.559714909999997</v>
+        <v>131.37494390000001</v>
       </c>
       <c r="D135">
-        <v>304.14972899999998</v>
+        <v>3.0268176840000001</v>
       </c>
       <c r="E135">
-        <v>9.6561253360000006</v>
+        <v>27.746488209999999</v>
       </c>
       <c r="F135">
-        <v>6.29</v>
+        <v>5.34</v>
       </c>
       <c r="G135">
-        <v>6.9</v>
+        <v>5.85</v>
       </c>
       <c r="H135">
-        <v>7.99</v>
+        <v>12979.7639</v>
       </c>
       <c r="I135">
-        <v>30804.703280000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C136">
-        <v>131.37494390000001</v>
+        <v>29.763897870000001</v>
       </c>
       <c r="D136">
-        <v>3.0268176840000001</v>
+        <v>7.9911795310000002</v>
       </c>
       <c r="E136">
-        <v>27.746488209999999</v>
+        <v>2.66372651</v>
       </c>
       <c r="F136">
-        <v>5.34</v>
+        <v>5.14</v>
       </c>
       <c r="G136">
-        <v>5.85</v>
+        <v>5.61</v>
       </c>
       <c r="H136">
-        <v>6.57</v>
+        <v>3585.123791</v>
       </c>
       <c r="I136">
-        <v>12979.7639</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>134</v>
-      </c>
-      <c r="B137" t="s">
-        <v>269</v>
-      </c>
-      <c r="C137">
-        <v>29.763897870000001</v>
-      </c>
-      <c r="D137">
-        <v>7.9911795310000002</v>
-      </c>
-      <c r="E137">
-        <v>2.66372651</v>
-      </c>
-      <c r="F137">
-        <v>5.14</v>
-      </c>
-      <c r="G137">
-        <v>5.61</v>
-      </c>
-      <c r="H137">
-        <v>7.12</v>
-      </c>
-      <c r="I137">
-        <v>3585.123791</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:I1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>